--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Clcf1-Crlf1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Clcf1-Crlf1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>1.798783666666666</v>
+        <v>0.06373566666666666</v>
       </c>
       <c r="H2">
-        <v>5.396350999999999</v>
+        <v>0.191207</v>
       </c>
       <c r="I2">
-        <v>0.2319744053785674</v>
+        <v>0.01058875298517695</v>
       </c>
       <c r="J2">
-        <v>0.2319744053785674</v>
+        <v>0.01058875298517695</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.082925</v>
+        <v>0.1993696666666667</v>
       </c>
       <c r="N2">
-        <v>0.248775</v>
+        <v>0.598109</v>
       </c>
       <c r="O2">
-        <v>0.003066867285585202</v>
+        <v>0.007341795645341</v>
       </c>
       <c r="P2">
-        <v>0.003066867285585203</v>
+        <v>0.007341795645341001</v>
       </c>
       <c r="Q2">
-        <v>0.1491641355583333</v>
+        <v>0.01270695861811111</v>
       </c>
       <c r="R2">
-        <v>1.342477220025</v>
+        <v>0.114362627563</v>
       </c>
       <c r="S2">
-        <v>0.0007114347149486083</v>
+        <v>7.774046055616368E-05</v>
       </c>
       <c r="T2">
-        <v>0.0007114347149486084</v>
+        <v>7.774046055616368E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>1.798783666666666</v>
+        <v>0.06373566666666666</v>
       </c>
       <c r="H3">
-        <v>5.396350999999999</v>
+        <v>0.191207</v>
       </c>
       <c r="I3">
-        <v>0.2319744053785674</v>
+        <v>0.01058875298517695</v>
       </c>
       <c r="J3">
-        <v>0.2319744053785674</v>
+        <v>0.01058875298517695</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>52.986228</v>
       </c>
       <c r="O3">
-        <v>0.653207634367435</v>
+        <v>0.6504066282123248</v>
       </c>
       <c r="P3">
-        <v>0.653207634367435</v>
+        <v>0.6504066282123249</v>
       </c>
       <c r="Q3">
-        <v>31.77025382822533</v>
+        <v>1.125704188577333</v>
       </c>
       <c r="R3">
-        <v>285.9322844540279</v>
+        <v>10.131337697196</v>
       </c>
       <c r="S3">
-        <v>0.1515274525711264</v>
+        <v>0.006886995126062131</v>
       </c>
       <c r="T3">
-        <v>0.1515274525711264</v>
+        <v>0.006886995126062132</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>1.798783666666666</v>
+        <v>0.06373566666666666</v>
       </c>
       <c r="H4">
-        <v>5.396350999999999</v>
+        <v>0.191207</v>
       </c>
       <c r="I4">
-        <v>0.2319744053785674</v>
+        <v>0.01058875298517695</v>
       </c>
       <c r="J4">
-        <v>0.2319744053785674</v>
+        <v>0.01058875298517695</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>27.881973</v>
       </c>
       <c r="O4">
-        <v>0.3437254983469798</v>
+        <v>0.3422515761423342</v>
       </c>
       <c r="P4">
-        <v>0.3437254983469798</v>
+        <v>0.3422515761423342</v>
       </c>
       <c r="Q4">
-        <v>16.717879208947</v>
+        <v>0.592358712379</v>
       </c>
       <c r="R4">
-        <v>150.460912880523</v>
+        <v>5.331228411411</v>
       </c>
       <c r="S4">
-        <v>0.07973551809249239</v>
+        <v>0.003624017398558659</v>
       </c>
       <c r="T4">
-        <v>0.07973551809249239</v>
+        <v>0.003624017398558659</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>5.348101</v>
       </c>
       <c r="I5">
-        <v>0.2299002695301921</v>
+        <v>0.2961697031425515</v>
       </c>
       <c r="J5">
-        <v>0.2299002695301921</v>
+        <v>0.2961697031425515</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.082925</v>
+        <v>0.1993696666666667</v>
       </c>
       <c r="N5">
-        <v>0.248775</v>
+        <v>0.598109</v>
       </c>
       <c r="O5">
-        <v>0.003066867285585202</v>
+        <v>0.007341795645341</v>
       </c>
       <c r="P5">
-        <v>0.003066867285585203</v>
+        <v>0.007341795645341001</v>
       </c>
       <c r="Q5">
-        <v>0.1478304251416667</v>
+        <v>0.3554163712232222</v>
       </c>
       <c r="R5">
-        <v>1.330473826275</v>
+        <v>3.198747341009</v>
       </c>
       <c r="S5">
-        <v>0.0007050736155693667</v>
+        <v>0.002174417436813922</v>
       </c>
       <c r="T5">
-        <v>0.0007050736155693667</v>
+        <v>0.002174417436813922</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>5.348101</v>
       </c>
       <c r="I6">
-        <v>0.2299002695301921</v>
+        <v>0.2961697031425515</v>
       </c>
       <c r="J6">
-        <v>0.2299002695301921</v>
+        <v>0.2961697031425515</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>52.986228</v>
       </c>
       <c r="O6">
-        <v>0.653207634367435</v>
+        <v>0.6504066282123248</v>
       </c>
       <c r="P6">
-        <v>0.653207634367435</v>
+        <v>0.6504066282123249</v>
       </c>
       <c r="Q6">
         <v>31.48618877255867</v>
@@ -818,10 +818,10 @@
         <v>283.3756989530279</v>
       </c>
       <c r="S6">
-        <v>0.1501726112002525</v>
+        <v>0.1926307379995921</v>
       </c>
       <c r="T6">
-        <v>0.1501726112002525</v>
+        <v>0.1926307379995921</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>5.348101</v>
       </c>
       <c r="I7">
-        <v>0.2299002695301921</v>
+        <v>0.2961697031425515</v>
       </c>
       <c r="J7">
-        <v>0.2299002695301921</v>
+        <v>0.2961697031425515</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>27.881973</v>
       </c>
       <c r="O7">
-        <v>0.3437254983469798</v>
+        <v>0.3422515761423342</v>
       </c>
       <c r="P7">
-        <v>0.3437254983469798</v>
+        <v>0.3422515761423342</v>
       </c>
       <c r="Q7">
         <v>16.568400853697</v>
@@ -880,10 +880,10 @@
         <v>149.115607683273</v>
       </c>
       <c r="S7">
-        <v>0.07902258471437026</v>
+        <v>0.1013645477061455</v>
       </c>
       <c r="T7">
-        <v>0.07902258471437025</v>
+        <v>0.1013645477061455</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,40 +912,40 @@
         <v>12.518248</v>
       </c>
       <c r="I8">
-        <v>0.5381253250912404</v>
+        <v>0.6932415438722715</v>
       </c>
       <c r="J8">
-        <v>0.5381253250912406</v>
+        <v>0.6932415438722715</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.082925</v>
+        <v>0.1993696666666667</v>
       </c>
       <c r="N8">
-        <v>0.248775</v>
+        <v>0.598109</v>
       </c>
       <c r="O8">
-        <v>0.003066867285585202</v>
+        <v>0.007341795645341</v>
       </c>
       <c r="P8">
-        <v>0.003066867285585203</v>
+        <v>0.007341795645341001</v>
       </c>
       <c r="Q8">
-        <v>0.3460252384666666</v>
+        <v>0.8319196436702222</v>
       </c>
       <c r="R8">
-        <v>3.1142271462</v>
+        <v>7.487276793032</v>
       </c>
       <c r="S8">
-        <v>0.001650358955067227</v>
+        <v>0.005089637747970915</v>
       </c>
       <c r="T8">
-        <v>0.001650358955067228</v>
+        <v>0.005089637747970915</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>12.518248</v>
       </c>
       <c r="I9">
-        <v>0.5381253250912404</v>
+        <v>0.6932415438722715</v>
       </c>
       <c r="J9">
-        <v>0.5381253250912406</v>
+        <v>0.6932415438722715</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>52.986228</v>
       </c>
       <c r="O9">
-        <v>0.653207634367435</v>
+        <v>0.6504066282123248</v>
       </c>
       <c r="P9">
-        <v>0.653207634367435</v>
+        <v>0.6504066282123249</v>
       </c>
       <c r="Q9">
         <v>73.69941585428266</v>
@@ -1004,10 +1004,10 @@
         <v>663.2947426885439</v>
       </c>
       <c r="S9">
-        <v>0.3515075705960561</v>
+        <v>0.4508888950866705</v>
       </c>
       <c r="T9">
-        <v>0.3515075705960561</v>
+        <v>0.4508888950866706</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>12.518248</v>
       </c>
       <c r="I10">
-        <v>0.5381253250912404</v>
+        <v>0.6932415438722715</v>
       </c>
       <c r="J10">
-        <v>0.5381253250912406</v>
+        <v>0.6932415438722715</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>27.881973</v>
       </c>
       <c r="O10">
-        <v>0.3437254983469798</v>
+        <v>0.3422515761423342</v>
       </c>
       <c r="P10">
-        <v>0.3437254983469798</v>
+        <v>0.3422515761423342</v>
       </c>
       <c r="Q10">
         <v>38.781494749256</v>
@@ -1066,10 +1066,10 @@
         <v>349.033452743304</v>
       </c>
       <c r="S10">
-        <v>0.1849673955401171</v>
+        <v>0.2372630110376301</v>
       </c>
       <c r="T10">
-        <v>0.1849673955401172</v>
+        <v>0.2372630110376301</v>
       </c>
     </row>
   </sheetData>
